--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/RMS_Data_Validation_Cablings/4U3U3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/RMS_Data_Validation_Cablings/4U3U3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6A2EF-C19B-4BD8-BCFF-6D71AE5F48CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEDCD77-56A2-4955-B635-8F668C2021F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -774,7 +774,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,8 +1995,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
